--- a/Documentacion/Cronograma.xlsx
+++ b/Documentacion/Cronograma.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="51">
   <si>
     <t>Semana</t>
   </si>
@@ -82,13 +82,100 @@
   </si>
   <si>
     <t>Diagramar proyecto (Clases y Objetos)</t>
+  </si>
+  <si>
+    <t>Prototipo</t>
+  </si>
+  <si>
+    <t>Revision de seguridad</t>
+  </si>
+  <si>
+    <t>Codificacion 2</t>
+  </si>
+  <si>
+    <t>Revision de errores</t>
+  </si>
+  <si>
+    <t>Analisis de codigo</t>
+  </si>
+  <si>
+    <t>Prueba de eficiencia</t>
+  </si>
+  <si>
+    <t>Prueba de errores</t>
+  </si>
+  <si>
+    <t>Prueba de funcionalidad</t>
+  </si>
+  <si>
+    <t>Solucion de resultados de pruebas</t>
+  </si>
+  <si>
+    <t>Codificacion 3</t>
+  </si>
+  <si>
+    <t>Evaluacion del componente</t>
+  </si>
+  <si>
+    <t>Codificacion 4</t>
+  </si>
+  <si>
+    <t>Prueba de eficiencia y errores</t>
+  </si>
+  <si>
+    <t>Evaluacion de funcionalidad</t>
+  </si>
+  <si>
+    <t>Revision de actividades y progreso</t>
+  </si>
+  <si>
+    <t>Codificacion 5</t>
+  </si>
+  <si>
+    <t>Revision de seguridad y eficiencia</t>
+  </si>
+  <si>
+    <t>Revision de pruebas (semana 7)</t>
+  </si>
+  <si>
+    <t>Codificacion 6</t>
+  </si>
+  <si>
+    <t>Borrador de manual</t>
+  </si>
+  <si>
+    <t>Finalizacion del manual</t>
+  </si>
+  <si>
+    <t>Codificacion 7</t>
+  </si>
+  <si>
+    <t>Evaluacion general</t>
+  </si>
+  <si>
+    <t>Revision final</t>
+  </si>
+  <si>
+    <t>Analisis general (funcionalidad,errores,eficiencia)</t>
+  </si>
+  <si>
+    <t>Desarrollo de la presentacion</t>
+  </si>
+  <si>
+    <t>Inicio</t>
+  </si>
+  <si>
+    <t>Final</t>
+  </si>
+  <si>
+    <t>Codificacion 1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -106,6 +193,13 @@
     </font>
     <font>
       <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -158,18 +252,36 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -471,11 +583,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D3:G39"/>
+  <dimension ref="D3:I39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J10" sqref="J10"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -483,12 +595,13 @@
     <col min="1" max="3" width="11.42578125" style="1"/>
     <col min="4" max="4" width="14.28515625" style="1" customWidth="1"/>
     <col min="5" max="5" width="59.42578125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" style="1"/>
+    <col min="6" max="6" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="11.42578125" style="1"/>
+    <col min="8" max="9" width="11.7109375" style="10" customWidth="1"/>
+    <col min="10" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D3" s="3" t="s">
         <v>0</v>
       </c>
@@ -501,344 +614,471 @@
       <c r="G3" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D4" s="4">
+      <c r="H3" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D4" s="5">
         <v>2</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G4" s="2"/>
-    </row>
-    <row r="5" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D5" s="4"/>
+      <c r="F4" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="8"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+    </row>
+    <row r="5" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D5" s="5"/>
       <c r="E5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G5" s="2"/>
-    </row>
-    <row r="6" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D6" s="4"/>
+      <c r="F5" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="8"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+    </row>
+    <row r="6" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D6" s="5"/>
       <c r="E6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G6" s="2"/>
-    </row>
-    <row r="7" spans="4:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D7" s="5">
+      <c r="F6" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="G6" s="8"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+    </row>
+    <row r="7" spans="4:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D7" s="6">
         <v>3</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="G7" s="6"/>
-    </row>
-    <row r="8" spans="4:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D8" s="5"/>
-      <c r="E8" s="6" t="s">
+      <c r="F7" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G7" s="9"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+    </row>
+    <row r="8" spans="4:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D8" s="6"/>
+      <c r="E8" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F8" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="G8" s="6"/>
-    </row>
-    <row r="9" spans="4:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D9" s="5"/>
-      <c r="E9" s="6" t="s">
+      <c r="F8" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G8" s="9"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+    </row>
+    <row r="9" spans="4:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D9" s="6"/>
+      <c r="E9" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="G9" s="6"/>
-    </row>
-    <row r="10" spans="4:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D10" s="4">
+      <c r="F9" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G9" s="9"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+    </row>
+    <row r="10" spans="4:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D10" s="5">
         <v>4</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F10" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G10" s="2"/>
-    </row>
-    <row r="11" spans="4:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D11" s="4"/>
+      <c r="F10" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="G10" s="8"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+    </row>
+    <row r="11" spans="4:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D11" s="5"/>
       <c r="E11" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F11" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G11" s="2"/>
-    </row>
-    <row r="12" spans="4:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D12" s="4"/>
+      <c r="F11" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="G11" s="8"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+    </row>
+    <row r="12" spans="4:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D12" s="5"/>
       <c r="E12" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F12" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G12" s="2"/>
-    </row>
-    <row r="13" spans="4:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D13" s="5">
+      <c r="F12" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="G12" s="8"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+    </row>
+    <row r="13" spans="4:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D13" s="6">
         <v>5</v>
       </c>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="G13" s="6"/>
-    </row>
-    <row r="14" spans="4:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D14" s="5"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="G14" s="6"/>
-    </row>
-    <row r="15" spans="4:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D15" s="5"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="G15" s="6"/>
-    </row>
-    <row r="16" spans="4:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D16" s="4">
+      <c r="E13" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G13" s="9"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+    </row>
+    <row r="14" spans="4:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D14" s="6"/>
+      <c r="E14" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14" s="9"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+    </row>
+    <row r="15" spans="4:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D15" s="6"/>
+      <c r="E15" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G15" s="9"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+    </row>
+    <row r="16" spans="4:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D16" s="5">
         <v>6</v>
       </c>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G16" s="2"/>
-    </row>
-    <row r="17" spans="4:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D17" s="4"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G17" s="2"/>
-    </row>
-    <row r="18" spans="4:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D18" s="4"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G18" s="2"/>
-    </row>
-    <row r="19" spans="4:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D19" s="5">
+      <c r="E16" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="G16" s="8"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+    </row>
+    <row r="17" spans="4:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D17" s="5"/>
+      <c r="E17" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="G17" s="8"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+    </row>
+    <row r="18" spans="4:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D18" s="5"/>
+      <c r="E18" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="G18" s="8"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+    </row>
+    <row r="19" spans="4:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D19" s="6">
         <v>7</v>
       </c>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="G19" s="6"/>
-    </row>
-    <row r="20" spans="4:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D20" s="5"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="G20" s="6"/>
-    </row>
-    <row r="21" spans="4:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D21" s="5"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="G21" s="6"/>
-    </row>
-    <row r="22" spans="4:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D22" s="4">
+      <c r="E19" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G19" s="9"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
+    </row>
+    <row r="20" spans="4:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D20" s="6"/>
+      <c r="E20" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G20" s="9"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+    </row>
+    <row r="21" spans="4:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D21" s="6"/>
+      <c r="E21" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G21" s="9"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
+    </row>
+    <row r="22" spans="4:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D22" s="5">
         <v>8</v>
       </c>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G22" s="2"/>
-    </row>
-    <row r="23" spans="4:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D23" s="4"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G23" s="2"/>
-    </row>
-    <row r="24" spans="4:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D24" s="4"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G24" s="2"/>
-    </row>
-    <row r="25" spans="4:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D25" s="5">
+      <c r="E22" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="G22" s="8"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+    </row>
+    <row r="23" spans="4:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D23" s="5"/>
+      <c r="E23" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="G23" s="8"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
+    </row>
+    <row r="24" spans="4:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D24" s="5"/>
+      <c r="E24" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="G24" s="8"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
+    </row>
+    <row r="25" spans="4:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D25" s="6">
         <v>9</v>
       </c>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="G25" s="6"/>
-    </row>
-    <row r="26" spans="4:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D26" s="5"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="G26" s="6"/>
-    </row>
-    <row r="27" spans="4:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D27" s="5"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="G27" s="6"/>
-    </row>
-    <row r="28" spans="4:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D28" s="4">
+      <c r="E25" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F25" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G25" s="9"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="12"/>
+    </row>
+    <row r="26" spans="4:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D26" s="6"/>
+      <c r="E26" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F26" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G26" s="9"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="12"/>
+    </row>
+    <row r="27" spans="4:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D27" s="6"/>
+      <c r="E27" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F27" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G27" s="9"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="12"/>
+    </row>
+    <row r="28" spans="4:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D28" s="5">
         <v>10</v>
       </c>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G28" s="2"/>
-    </row>
-    <row r="29" spans="4:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D29" s="4"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G29" s="2"/>
-    </row>
-    <row r="30" spans="4:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D30" s="4"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G30" s="2"/>
-    </row>
-    <row r="31" spans="4:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D31" s="5">
+      <c r="E28" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="G28" s="8"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="11"/>
+    </row>
+    <row r="29" spans="4:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D29" s="5"/>
+      <c r="E29" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="G29" s="8"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="11"/>
+    </row>
+    <row r="30" spans="4:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D30" s="5"/>
+      <c r="E30" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F30" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="G30" s="8"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="11"/>
+    </row>
+    <row r="31" spans="4:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D31" s="6">
         <v>11</v>
       </c>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="G31" s="6"/>
-    </row>
-    <row r="32" spans="4:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D32" s="5"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="G32" s="6"/>
-    </row>
-    <row r="33" spans="4:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D33" s="5"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="G33" s="6"/>
-    </row>
-    <row r="34" spans="4:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D34" s="4">
+      <c r="E31" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F31" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G31" s="9"/>
+      <c r="H31" s="12"/>
+      <c r="I31" s="12"/>
+    </row>
+    <row r="32" spans="4:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D32" s="6"/>
+      <c r="E32" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F32" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G32" s="9"/>
+      <c r="H32" s="12"/>
+      <c r="I32" s="12"/>
+    </row>
+    <row r="33" spans="4:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D33" s="6"/>
+      <c r="E33" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F33" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G33" s="9"/>
+      <c r="H33" s="12"/>
+      <c r="I33" s="12"/>
+    </row>
+    <row r="34" spans="4:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D34" s="5">
         <v>12</v>
       </c>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G34" s="2"/>
-    </row>
-    <row r="35" spans="4:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D35" s="4"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G35" s="2"/>
-    </row>
-    <row r="36" spans="4:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D36" s="4"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G36" s="2"/>
-    </row>
-    <row r="37" spans="4:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D37" s="5">
+      <c r="E34" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="G34" s="8"/>
+      <c r="H34" s="11"/>
+      <c r="I34" s="11"/>
+    </row>
+    <row r="35" spans="4:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D35" s="5"/>
+      <c r="E35" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F35" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="G35" s="8"/>
+      <c r="H35" s="11"/>
+      <c r="I35" s="11"/>
+    </row>
+    <row r="36" spans="4:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D36" s="5"/>
+      <c r="E36" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F36" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="G36" s="8"/>
+      <c r="H36" s="11"/>
+      <c r="I36" s="11"/>
+    </row>
+    <row r="37" spans="4:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D37" s="6">
         <v>13</v>
       </c>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="G37" s="6"/>
-    </row>
-    <row r="38" spans="4:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D38" s="5"/>
-      <c r="E38" s="6"/>
-      <c r="F38" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="G38" s="6"/>
-    </row>
-    <row r="39" spans="4:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D39" s="5"/>
-      <c r="E39" s="6"/>
-      <c r="F39" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="G39" s="6"/>
+      <c r="E37" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F37" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G37" s="9"/>
+      <c r="H37" s="12"/>
+      <c r="I37" s="12"/>
+    </row>
+    <row r="38" spans="4:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D38" s="6"/>
+      <c r="E38" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F38" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G38" s="9"/>
+      <c r="H38" s="12"/>
+      <c r="I38" s="12"/>
+    </row>
+    <row r="39" spans="4:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D39" s="6"/>
+      <c r="E39" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F39" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G39" s="9"/>
+      <c r="H39" s="12"/>
+      <c r="I39" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="D22:D24"/>
-    <mergeCell ref="D25:D27"/>
-    <mergeCell ref="D28:D30"/>
-    <mergeCell ref="D31:D33"/>
-    <mergeCell ref="D34:D36"/>
     <mergeCell ref="D37:D39"/>
     <mergeCell ref="D4:D6"/>
     <mergeCell ref="D7:D9"/>
@@ -846,6 +1086,11 @@
     <mergeCell ref="D13:D15"/>
     <mergeCell ref="D16:D18"/>
     <mergeCell ref="D19:D21"/>
+    <mergeCell ref="D22:D24"/>
+    <mergeCell ref="D25:D27"/>
+    <mergeCell ref="D28:D30"/>
+    <mergeCell ref="D31:D33"/>
+    <mergeCell ref="D34:D36"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Documentacion/Cronograma.xlsx
+++ b/Documentacion/Cronograma.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="51">
   <si>
     <t>Semana</t>
   </si>
@@ -175,7 +175,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -203,6 +203,13 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -249,21 +256,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -282,9 +284,23 @@
     <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -583,514 +599,734 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D3:I39"/>
+  <dimension ref="B1:L39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="11.42578125" style="1"/>
-    <col min="4" max="4" width="14.28515625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="59.42578125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="11.7109375" style="10" customWidth="1"/>
-    <col min="10" max="16384" width="11.42578125" style="1"/>
+    <col min="1" max="2" width="11.42578125" style="1"/>
+    <col min="3" max="3" width="14.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="59.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="11.7109375" style="8" customWidth="1"/>
+    <col min="9" max="10" width="11.42578125" style="1"/>
+    <col min="11" max="11" width="3" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="J1" s="13" t="str">
+        <f>Hoja2!D3</f>
+        <v>Eliud</v>
+      </c>
+      <c r="K1" s="14">
+        <f t="shared" ref="K1:K3" si="0">COUNTIF($F$4:$F$39,J1)</f>
+        <v>5</v>
+      </c>
+      <c r="L1" s="15">
+        <f>(K1*1)/36</f>
+        <v>0.1388888888888889</v>
+      </c>
+    </row>
+    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="J2" s="13" t="str">
+        <f>Hoja2!D4</f>
+        <v>Bryan</v>
+      </c>
+      <c r="K2" s="14">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L2" s="15">
+        <f t="shared" ref="L2:L3" si="1">(K2*1)/36</f>
+        <v>2.7777777777777776E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C3" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="D3" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="J3" s="13" t="str">
+        <f>Hoja2!D5</f>
+        <v>Jeffrie</v>
+      </c>
+      <c r="K3" s="14">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="L3" s="15">
+        <f t="shared" si="1"/>
+        <v>2.7777777777777776E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B4" s="1">
+        <v>1</v>
+      </c>
+      <c r="C4" s="12">
         <v>2</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="D4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="9">
+        <v>42017</v>
+      </c>
+      <c r="H4" s="9">
+        <v>42024</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B5" s="1">
+        <f>B4+1</f>
+        <v>2</v>
+      </c>
+      <c r="C5" s="12"/>
+      <c r="D5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="9">
+        <v>42017</v>
+      </c>
+      <c r="H5" s="9">
+        <v>42024</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B6" s="1">
+        <f t="shared" ref="B6:B39" si="2">B5+1</f>
+        <v>3</v>
+      </c>
+      <c r="C6" s="12"/>
+      <c r="D6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="9">
+        <v>42017</v>
+      </c>
+      <c r="H6" s="9">
+        <v>42024</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="1">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="C7" s="11">
+        <v>3</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="9">
+        <v>42024</v>
+      </c>
+      <c r="H7" s="10"/>
+    </row>
+    <row r="8" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="1">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="C8" s="11"/>
+      <c r="D8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="9">
+        <v>42024</v>
+      </c>
+      <c r="H8" s="10"/>
+    </row>
+    <row r="9" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="1">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="C9" s="11"/>
+      <c r="D9" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="9">
+        <v>42024</v>
+      </c>
+      <c r="H9" s="10"/>
+    </row>
+    <row r="10" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="1">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="C10" s="12">
+        <v>4</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" s="9">
+        <v>42024</v>
+      </c>
+      <c r="H10" s="9"/>
+    </row>
+    <row r="11" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="1">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="C11" s="12"/>
+      <c r="D11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F11" s="6"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+    </row>
+    <row r="12" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="1">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="C12" s="12"/>
+      <c r="D12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F12" s="6"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+    </row>
+    <row r="13" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="1">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="C13" s="11">
+        <v>5</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F13" s="7"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+    </row>
+    <row r="14" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="1">
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
-      <c r="H3" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="4" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D4" s="5">
-        <v>2</v>
-      </c>
-      <c r="E4" s="2" t="s">
+      <c r="C14" s="11"/>
+      <c r="D14" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="7"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+    </row>
+    <row r="15" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="1">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="C15" s="11"/>
+      <c r="D15" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F15" s="7"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+    </row>
+    <row r="16" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="1">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="C16" s="12">
+        <v>6</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F16" s="6"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+    </row>
+    <row r="17" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="1">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="C17" s="12"/>
+      <c r="D17" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F17" s="6"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+    </row>
+    <row r="18" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="1">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="C18" s="12"/>
+      <c r="D18" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F18" s="6"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+    </row>
+    <row r="19" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="1">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="C19" s="11">
+        <v>7</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F19" s="7"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+    </row>
+    <row r="20" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="1">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="C20" s="11"/>
+      <c r="D20" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F20" s="7"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+    </row>
+    <row r="21" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="1">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="C21" s="11"/>
+      <c r="D21" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F21" s="7"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+    </row>
+    <row r="22" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="1">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+      <c r="C22" s="12">
         <v>8</v>
       </c>
-      <c r="F4" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="G4" s="8"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-    </row>
-    <row r="5" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D5" s="5"/>
-      <c r="E5" s="2" t="s">
+      <c r="D22" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F22" s="6"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+    </row>
+    <row r="23" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="1">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="C23" s="12"/>
+      <c r="D23" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F23" s="6"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+    </row>
+    <row r="24" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="1">
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
+      <c r="C24" s="12"/>
+      <c r="D24" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F24" s="6"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+    </row>
+    <row r="25" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="1">
+        <f t="shared" si="2"/>
+        <v>22</v>
+      </c>
+      <c r="C25" s="11">
         <v>9</v>
       </c>
-      <c r="F5" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="G5" s="8"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-    </row>
-    <row r="6" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D6" s="5"/>
-      <c r="E6" s="2" t="s">
+      <c r="D25" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F25" s="7"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+    </row>
+    <row r="26" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="1">
+        <f t="shared" si="2"/>
+        <v>23</v>
+      </c>
+      <c r="C26" s="11"/>
+      <c r="D26" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F26" s="7"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
+    </row>
+    <row r="27" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="1">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="C27" s="11"/>
+      <c r="D27" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F27" s="7"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10"/>
+    </row>
+    <row r="28" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="1">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="C28" s="12">
         <v>10</v>
       </c>
-      <c r="F6" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="G6" s="8"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-    </row>
-    <row r="7" spans="4:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D7" s="6">
-        <v>3</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="G7" s="9"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-    </row>
-    <row r="8" spans="4:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D8" s="6"/>
-      <c r="E8" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="G8" s="9"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-    </row>
-    <row r="9" spans="4:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D9" s="6"/>
-      <c r="E9" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="G9" s="9"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-    </row>
-    <row r="10" spans="4:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D10" s="5">
-        <v>4</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="G10" s="8"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-    </row>
-    <row r="11" spans="4:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D11" s="5"/>
-      <c r="E11" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="G11" s="8"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
-    </row>
-    <row r="12" spans="4:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D12" s="5"/>
-      <c r="E12" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="G12" s="8"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
-    </row>
-    <row r="13" spans="4:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D13" s="6">
-        <v>5</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F13" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="G13" s="9"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
-    </row>
-    <row r="14" spans="4:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D14" s="6"/>
-      <c r="E14" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F14" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="G14" s="9"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
-    </row>
-    <row r="15" spans="4:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D15" s="6"/>
-      <c r="E15" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="F15" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="G15" s="9"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
-    </row>
-    <row r="16" spans="4:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D16" s="5">
-        <v>6</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F16" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="G16" s="8"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="11"/>
-    </row>
-    <row r="17" spans="4:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D17" s="5"/>
-      <c r="E17" s="2" t="s">
+      <c r="D28" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F28" s="6"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
+    </row>
+    <row r="29" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="1">
+        <f t="shared" si="2"/>
         <v>26</v>
       </c>
-      <c r="F17" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="G17" s="8"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
-    </row>
-    <row r="18" spans="4:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D18" s="5"/>
-      <c r="E18" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F18" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="G18" s="8"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
-    </row>
-    <row r="19" spans="4:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D19" s="6">
-        <v>7</v>
-      </c>
-      <c r="E19" s="4" t="s">
+      <c r="C29" s="12"/>
+      <c r="D29" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F29" s="6"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9"/>
+    </row>
+    <row r="30" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="1">
+        <f t="shared" si="2"/>
         <v>27</v>
       </c>
-      <c r="F19" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="G19" s="9"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="12"/>
-    </row>
-    <row r="20" spans="4:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D20" s="6"/>
-      <c r="E20" s="4" t="s">
+      <c r="C30" s="12"/>
+      <c r="D30" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F30" s="6"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9"/>
+    </row>
+    <row r="31" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="1">
+        <f t="shared" si="2"/>
         <v>28</v>
       </c>
-      <c r="F20" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="G20" s="9"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="12"/>
-    </row>
-    <row r="21" spans="4:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D21" s="6"/>
-      <c r="E21" s="4" t="s">
+      <c r="C31" s="11">
+        <v>11</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F31" s="7"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="10"/>
+    </row>
+    <row r="32" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="1">
+        <f t="shared" si="2"/>
         <v>29</v>
       </c>
-      <c r="F21" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="G21" s="9"/>
-      <c r="H21" s="12"/>
-      <c r="I21" s="12"/>
-    </row>
-    <row r="22" spans="4:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D22" s="5">
-        <v>8</v>
-      </c>
-      <c r="E22" s="2" t="s">
+      <c r="C32" s="11"/>
+      <c r="D32" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F32" s="7"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="10"/>
+    </row>
+    <row r="33" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="1">
+        <f t="shared" si="2"/>
         <v>30</v>
       </c>
-      <c r="F22" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="G22" s="8"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="11"/>
-    </row>
-    <row r="23" spans="4:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D23" s="5"/>
-      <c r="E23" s="2" t="s">
+      <c r="C33" s="11"/>
+      <c r="D33" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F33" s="7"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="10"/>
+    </row>
+    <row r="34" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="1">
+        <f t="shared" si="2"/>
         <v>31</v>
       </c>
-      <c r="F23" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="G23" s="8"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="11"/>
-    </row>
-    <row r="24" spans="4:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D24" s="5"/>
-      <c r="E24" s="2" t="s">
+      <c r="C34" s="12">
+        <v>12</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F34" s="6"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="9"/>
+    </row>
+    <row r="35" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="1">
+        <f t="shared" si="2"/>
         <v>32</v>
       </c>
-      <c r="F24" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="G24" s="8"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="11"/>
-    </row>
-    <row r="25" spans="4:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D25" s="6">
-        <v>9</v>
-      </c>
-      <c r="E25" s="4" t="s">
+      <c r="C35" s="12"/>
+      <c r="D35" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F35" s="6"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="9"/>
+    </row>
+    <row r="36" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="1">
+        <f t="shared" si="2"/>
         <v>33</v>
       </c>
-      <c r="F25" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="G25" s="9"/>
-      <c r="H25" s="12"/>
-      <c r="I25" s="12"/>
-    </row>
-    <row r="26" spans="4:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D26" s="6"/>
-      <c r="E26" s="4" t="s">
+      <c r="C36" s="12"/>
+      <c r="D36" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F36" s="6"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="9"/>
+    </row>
+    <row r="37" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="1">
+        <f t="shared" si="2"/>
         <v>34</v>
       </c>
-      <c r="F26" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="G26" s="9"/>
-      <c r="H26" s="12"/>
-      <c r="I26" s="12"/>
-    </row>
-    <row r="27" spans="4:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D27" s="6"/>
-      <c r="E27" s="4" t="s">
+      <c r="C37" s="11">
+        <v>13</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F37" s="7"/>
+      <c r="G37" s="10"/>
+      <c r="H37" s="10"/>
+    </row>
+    <row r="38" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="1">
+        <f t="shared" si="2"/>
         <v>35</v>
       </c>
-      <c r="F27" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="G27" s="9"/>
-      <c r="H27" s="12"/>
-      <c r="I27" s="12"/>
-    </row>
-    <row r="28" spans="4:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D28" s="5">
-        <v>10</v>
-      </c>
-      <c r="E28" s="2" t="s">
+      <c r="C38" s="11"/>
+      <c r="D38" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F38" s="7"/>
+      <c r="G38" s="10"/>
+      <c r="H38" s="10"/>
+    </row>
+    <row r="39" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="1">
+        <f t="shared" si="2"/>
         <v>36</v>
       </c>
-      <c r="F28" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="G28" s="8"/>
-      <c r="H28" s="11"/>
-      <c r="I28" s="11"/>
-    </row>
-    <row r="29" spans="4:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D29" s="5"/>
-      <c r="E29" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F29" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="G29" s="8"/>
-      <c r="H29" s="11"/>
-      <c r="I29" s="11"/>
-    </row>
-    <row r="30" spans="4:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D30" s="5"/>
-      <c r="E30" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F30" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="G30" s="8"/>
-      <c r="H30" s="11"/>
-      <c r="I30" s="11"/>
-    </row>
-    <row r="31" spans="4:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D31" s="6">
-        <v>11</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="F31" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="G31" s="9"/>
-      <c r="H31" s="12"/>
-      <c r="I31" s="12"/>
-    </row>
-    <row r="32" spans="4:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D32" s="6"/>
-      <c r="E32" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="F32" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="G32" s="9"/>
-      <c r="H32" s="12"/>
-      <c r="I32" s="12"/>
-    </row>
-    <row r="33" spans="4:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D33" s="6"/>
-      <c r="E33" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="F33" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="G33" s="9"/>
-      <c r="H33" s="12"/>
-      <c r="I33" s="12"/>
-    </row>
-    <row r="34" spans="4:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D34" s="5">
-        <v>12</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F34" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="G34" s="8"/>
-      <c r="H34" s="11"/>
-      <c r="I34" s="11"/>
-    </row>
-    <row r="35" spans="4:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D35" s="5"/>
-      <c r="E35" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F35" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="G35" s="8"/>
-      <c r="H35" s="11"/>
-      <c r="I35" s="11"/>
-    </row>
-    <row r="36" spans="4:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D36" s="5"/>
-      <c r="E36" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F36" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="G36" s="8"/>
-      <c r="H36" s="11"/>
-      <c r="I36" s="11"/>
-    </row>
-    <row r="37" spans="4:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D37" s="6">
-        <v>13</v>
-      </c>
-      <c r="E37" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="F37" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="G37" s="9"/>
-      <c r="H37" s="12"/>
-      <c r="I37" s="12"/>
-    </row>
-    <row r="38" spans="4:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D38" s="6"/>
-      <c r="E38" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="F38" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="G38" s="9"/>
-      <c r="H38" s="12"/>
-      <c r="I38" s="12"/>
-    </row>
-    <row r="39" spans="4:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D39" s="6"/>
-      <c r="E39" s="4" t="s">
+      <c r="C39" s="11"/>
+      <c r="D39" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="F39" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="G39" s="9"/>
-      <c r="H39" s="12"/>
-      <c r="I39" s="12"/>
+      <c r="E39" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F39" s="7"/>
+      <c r="G39" s="10"/>
+      <c r="H39" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="D37:D39"/>
-    <mergeCell ref="D4:D6"/>
-    <mergeCell ref="D7:D9"/>
-    <mergeCell ref="D10:D12"/>
-    <mergeCell ref="D13:D15"/>
-    <mergeCell ref="D16:D18"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="D22:D24"/>
-    <mergeCell ref="D25:D27"/>
-    <mergeCell ref="D28:D30"/>
-    <mergeCell ref="D31:D33"/>
-    <mergeCell ref="D34:D36"/>
+    <mergeCell ref="C37:C39"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="C13:C15"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="C25:C27"/>
+    <mergeCell ref="C28:C30"/>
+    <mergeCell ref="C31:C33"/>
+    <mergeCell ref="C34:C36"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1101,13 +1337,13 @@
           <x14:formula1>
             <xm:f>Hoja2!$B$3:$B$7</xm:f>
           </x14:formula1>
-          <xm:sqref>F4:F39</xm:sqref>
+          <xm:sqref>E4:E39</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Hoja2!$D$3:$D$5</xm:f>
           </x14:formula1>
-          <xm:sqref>G4:G39</xm:sqref>
+          <xm:sqref>F4:F39</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1120,7 +1356,7 @@
   <dimension ref="B2:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
